--- a/Alseit.xlsx
+++ b/Alseit.xlsx
@@ -833,10 +833,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>1710000</v>
+        <v>3420000</v>
       </c>
       <c r="G3" t="n">
         <v>330000</v>

--- a/Alseit.xlsx
+++ b/Alseit.xlsx
@@ -1432,7 +1432,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>manager_7</t>
+          <t>Алихан</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>manager_7</t>
+          <t>Алихан</t>
         </is>
       </c>
     </row>
@@ -2800,7 +2800,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>manager_7</t>
+          <t>Алихан</t>
         </is>
       </c>
       <c r="B13" t="n">
